--- a/database/industries/dode/shedoos/product/monthly_seprated.xlsx
+++ b/database/industries/dode/shedoos/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shedoos\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F8C675-2BB9-4E7B-A945-B1534506165F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54CCE8C-E5D1-4821-A676-D71CA9C73CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1062" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
-  </si>
-  <si>
     <t>ماه 8 منتهی به 1397/08</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1528,26 +1528,26 @@
       <c r="AG11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH11" s="11" t="s">
-        <v>58</v>
+      <c r="AH11" s="11">
+        <v>0</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>0</v>
+      <c r="AJ11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL11" s="11" t="s">
-        <v>58</v>
+      <c r="AL11" s="11">
+        <v>2873</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN11" s="11">
-        <v>2873</v>
+      <c r="AN11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO11" s="11" t="s">
         <v>58</v>
@@ -1660,95 +1660,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>2437</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>2209</v>
       </c>
       <c r="AA12" s="13">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="AB12" s="13">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AC12" s="13">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AD12" s="13">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AE12" s="13">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AF12" s="13">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AG12" s="13">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AH12" s="13">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AI12" s="13">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AJ12" s="13">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AK12" s="13">
-        <v>3170</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>2426</v>
+        <v>2697</v>
+      </c>
+      <c r="AL12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM12" s="13">
-        <v>2697</v>
-      </c>
-      <c r="AN12" s="13" t="s">
-        <v>58</v>
+        <v>2743</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>3033</v>
       </c>
       <c r="AO12" s="13">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AP12" s="13">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AR12" s="13">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AS12" s="13">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AT12" s="13">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AU12" s="13">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AV12" s="13">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AW12" s="13">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AX12" s="13">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AY12" s="13">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="BA12" s="13">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="BB12" s="13">
-        <v>2396</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1818,94 +1818,94 @@
         <v>0</v>
       </c>
       <c r="Y13" s="15">
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="Z13" s="15">
-        <v>0</v>
+        <v>2209</v>
       </c>
       <c r="AA13" s="15">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="AB13" s="15">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AC13" s="15">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AD13" s="15">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AE13" s="15">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AF13" s="15">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AG13" s="15">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AH13" s="15">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AI13" s="15">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AJ13" s="15">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AK13" s="15">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AL13" s="15">
-        <v>2426</v>
+        <v>2873</v>
       </c>
       <c r="AM13" s="15">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AN13" s="15">
-        <v>2873</v>
+        <v>3033</v>
       </c>
       <c r="AO13" s="15">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AP13" s="15">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AQ13" s="15">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AR13" s="15">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AS13" s="15">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AT13" s="15">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AU13" s="15">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AV13" s="15">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AW13" s="15">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AX13" s="15">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AY13" s="15">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AZ13" s="15">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="BA13" s="15">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="BB13" s="15">
-        <v>2396</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2060,14 +2060,14 @@
       <c r="AG15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH15" s="11" t="s">
-        <v>58</v>
+      <c r="AH15" s="11">
+        <v>0</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ15" s="11">
-        <v>0</v>
+      <c r="AJ15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK15" s="11" t="s">
         <v>58</v>
@@ -2198,11 +2198,11 @@
       <c r="Z16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB16" s="13" t="s">
-        <v>58</v>
+      <c r="AA16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>0</v>
       </c>
       <c r="AC16" s="13">
         <v>0</v>
@@ -2222,11 +2222,11 @@
       <c r="AH16" s="13">
         <v>0</v>
       </c>
-      <c r="AI16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>0</v>
+      <c r="AI16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK16" s="13" t="s">
         <v>58</v>
@@ -2249,26 +2249,26 @@
       <c r="AQ16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX16" s="13" t="s">
-        <v>58</v>
+      <c r="AR16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>0</v>
       </c>
       <c r="AY16" s="13">
         <v>0</v>
@@ -2563,11 +2563,11 @@
       <c r="X19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z19" s="15" t="s">
-        <v>58</v>
+      <c r="Y19" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="15">
+        <v>0</v>
       </c>
       <c r="AA19" s="15">
         <v>0</v>
@@ -2721,94 +2721,94 @@
         <v>0</v>
       </c>
       <c r="Y20" s="19">
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="Z20" s="19">
-        <v>0</v>
+        <v>2209</v>
       </c>
       <c r="AA20" s="19">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="AB20" s="19">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AC20" s="19">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AD20" s="19">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AE20" s="19">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AF20" s="19">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AG20" s="19">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AH20" s="19">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AI20" s="19">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AJ20" s="19">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AK20" s="19">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AL20" s="19">
-        <v>2426</v>
+        <v>2873</v>
       </c>
       <c r="AM20" s="19">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AN20" s="19">
-        <v>2873</v>
+        <v>3033</v>
       </c>
       <c r="AO20" s="19">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AP20" s="19">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AQ20" s="19">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AR20" s="19">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AS20" s="19">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AT20" s="19">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AU20" s="19">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AV20" s="19">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AW20" s="19">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AX20" s="19">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AY20" s="19">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AZ20" s="19">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="BA20" s="19">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="BB20" s="19">
-        <v>2396</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="21" spans="2:54" x14ac:dyDescent="0.3">
@@ -3340,26 +3340,26 @@
       <c r="AG27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH27" s="11" t="s">
-        <v>58</v>
+      <c r="AH27" s="11">
+        <v>0</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ27" s="11">
-        <v>0</v>
+      <c r="AJ27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL27" s="11" t="s">
-        <v>58</v>
+      <c r="AL27" s="11">
+        <v>2689</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN27" s="11">
-        <v>2689</v>
+      <c r="AN27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO27" s="11" t="s">
         <v>58</v>
@@ -3472,95 +3472,95 @@
       <c r="X28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z28" s="13" t="s">
-        <v>58</v>
+      <c r="Y28" s="13">
+        <v>2157</v>
+      </c>
+      <c r="Z28" s="13">
+        <v>1818</v>
       </c>
       <c r="AA28" s="13">
-        <v>2157</v>
+        <v>3618</v>
       </c>
       <c r="AB28" s="13">
-        <v>1818</v>
+        <v>1841</v>
       </c>
       <c r="AC28" s="13">
-        <v>3618</v>
+        <v>1487</v>
       </c>
       <c r="AD28" s="13">
-        <v>1841</v>
+        <v>2181</v>
       </c>
       <c r="AE28" s="13">
-        <v>1487</v>
+        <v>1768</v>
       </c>
       <c r="AF28" s="13">
-        <v>2181</v>
+        <v>1348</v>
       </c>
       <c r="AG28" s="13">
-        <v>1768</v>
+        <v>1660</v>
       </c>
       <c r="AH28" s="13">
-        <v>1348</v>
+        <v>2074</v>
       </c>
       <c r="AI28" s="13">
-        <v>1660</v>
+        <v>2960</v>
       </c>
       <c r="AJ28" s="13">
+        <v>2201</v>
+      </c>
+      <c r="AK28" s="13">
+        <v>2283</v>
+      </c>
+      <c r="AL28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>2941</v>
+      </c>
+      <c r="AN28" s="13">
+        <v>2925</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>2174</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>3345</v>
+      </c>
+      <c r="AQ28" s="13">
+        <v>2823</v>
+      </c>
+      <c r="AR28" s="13">
+        <v>2411</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AT28" s="13">
+        <v>1955</v>
+      </c>
+      <c r="AU28" s="13">
+        <v>2564</v>
+      </c>
+      <c r="AV28" s="13">
+        <v>2443</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>2231</v>
+      </c>
+      <c r="AX28" s="13">
+        <v>1878</v>
+      </c>
+      <c r="AY28" s="13">
         <v>2074</v>
       </c>
-      <c r="AK28" s="13">
-        <v>2960</v>
-      </c>
-      <c r="AL28" s="13">
-        <v>2201</v>
-      </c>
-      <c r="AM28" s="13">
-        <v>2283</v>
-      </c>
-      <c r="AN28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO28" s="13">
-        <v>2941</v>
-      </c>
-      <c r="AP28" s="13">
-        <v>2925</v>
-      </c>
-      <c r="AQ28" s="13">
-        <v>2174</v>
-      </c>
-      <c r="AR28" s="13">
-        <v>3345</v>
-      </c>
-      <c r="AS28" s="13">
-        <v>2823</v>
-      </c>
-      <c r="AT28" s="13">
-        <v>2411</v>
-      </c>
-      <c r="AU28" s="13">
-        <v>2040</v>
-      </c>
-      <c r="AV28" s="13">
-        <v>1955</v>
-      </c>
-      <c r="AW28" s="13">
-        <v>2564</v>
-      </c>
-      <c r="AX28" s="13">
-        <v>2443</v>
-      </c>
-      <c r="AY28" s="13">
-        <v>2231</v>
-      </c>
       <c r="AZ28" s="13">
-        <v>1878</v>
+        <v>1981</v>
       </c>
       <c r="BA28" s="13">
-        <v>2074</v>
+        <v>2510</v>
       </c>
       <c r="BB28" s="13">
-        <v>1981</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3630,94 +3630,94 @@
         <v>0</v>
       </c>
       <c r="Y29" s="15">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="Z29" s="15">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="AA29" s="15">
-        <v>2157</v>
+        <v>3618</v>
       </c>
       <c r="AB29" s="15">
-        <v>1818</v>
+        <v>1841</v>
       </c>
       <c r="AC29" s="15">
-        <v>3618</v>
+        <v>1487</v>
       </c>
       <c r="AD29" s="15">
-        <v>1841</v>
+        <v>2181</v>
       </c>
       <c r="AE29" s="15">
-        <v>1487</v>
+        <v>1768</v>
       </c>
       <c r="AF29" s="15">
-        <v>2181</v>
+        <v>1348</v>
       </c>
       <c r="AG29" s="15">
-        <v>1768</v>
+        <v>1660</v>
       </c>
       <c r="AH29" s="15">
-        <v>1348</v>
+        <v>2074</v>
       </c>
       <c r="AI29" s="15">
-        <v>1660</v>
+        <v>2960</v>
       </c>
       <c r="AJ29" s="15">
+        <v>2201</v>
+      </c>
+      <c r="AK29" s="15">
+        <v>2283</v>
+      </c>
+      <c r="AL29" s="15">
+        <v>2689</v>
+      </c>
+      <c r="AM29" s="15">
+        <v>2941</v>
+      </c>
+      <c r="AN29" s="15">
+        <v>2925</v>
+      </c>
+      <c r="AO29" s="15">
+        <v>2174</v>
+      </c>
+      <c r="AP29" s="15">
+        <v>3345</v>
+      </c>
+      <c r="AQ29" s="15">
+        <v>2823</v>
+      </c>
+      <c r="AR29" s="15">
+        <v>2411</v>
+      </c>
+      <c r="AS29" s="15">
+        <v>2040</v>
+      </c>
+      <c r="AT29" s="15">
+        <v>1955</v>
+      </c>
+      <c r="AU29" s="15">
+        <v>2564</v>
+      </c>
+      <c r="AV29" s="15">
+        <v>2443</v>
+      </c>
+      <c r="AW29" s="15">
+        <v>2231</v>
+      </c>
+      <c r="AX29" s="15">
+        <v>1878</v>
+      </c>
+      <c r="AY29" s="15">
         <v>2074</v>
       </c>
-      <c r="AK29" s="15">
-        <v>2960</v>
-      </c>
-      <c r="AL29" s="15">
-        <v>2201</v>
-      </c>
-      <c r="AM29" s="15">
-        <v>2283</v>
-      </c>
-      <c r="AN29" s="15">
-        <v>2689</v>
-      </c>
-      <c r="AO29" s="15">
-        <v>2941</v>
-      </c>
-      <c r="AP29" s="15">
-        <v>2925</v>
-      </c>
-      <c r="AQ29" s="15">
-        <v>2174</v>
-      </c>
-      <c r="AR29" s="15">
-        <v>3345</v>
-      </c>
-      <c r="AS29" s="15">
-        <v>2823</v>
-      </c>
-      <c r="AT29" s="15">
-        <v>2411</v>
-      </c>
-      <c r="AU29" s="15">
-        <v>2040</v>
-      </c>
-      <c r="AV29" s="15">
-        <v>1955</v>
-      </c>
-      <c r="AW29" s="15">
-        <v>2564</v>
-      </c>
-      <c r="AX29" s="15">
-        <v>2443</v>
-      </c>
-      <c r="AY29" s="15">
-        <v>2231</v>
-      </c>
       <c r="AZ29" s="15">
-        <v>1878</v>
+        <v>1981</v>
       </c>
       <c r="BA29" s="15">
-        <v>2074</v>
+        <v>2510</v>
       </c>
       <c r="BB29" s="15">
-        <v>1981</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -3872,44 +3872,44 @@
       <c r="AG31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>58</v>
+      <c r="AH31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="11">
+        <v>95</v>
       </c>
       <c r="AJ31" s="11">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AK31" s="11">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="AL31" s="11">
-        <v>219</v>
-      </c>
-      <c r="AM31" s="11">
-        <v>379</v>
+        <v>224</v>
+      </c>
+      <c r="AM31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN31" s="11">
-        <v>224</v>
-      </c>
-      <c r="AO31" s="11" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="AO31" s="11">
+        <v>19</v>
       </c>
       <c r="AP31" s="11">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AQ31" s="11">
-        <v>19</v>
-      </c>
-      <c r="AR31" s="11">
-        <v>243</v>
-      </c>
-      <c r="AS31" s="11">
         <v>39</v>
       </c>
-      <c r="AT31" s="11">
-        <v>302</v>
+      <c r="AR31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU31" s="11" t="s">
         <v>58</v>
@@ -4010,35 +4010,35 @@
       <c r="Z32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB32" s="13" t="s">
-        <v>58</v>
+      <c r="AA32" s="13">
+        <v>136</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>462</v>
       </c>
       <c r="AC32" s="13">
+        <v>539</v>
+      </c>
+      <c r="AD32" s="13">
+        <v>281</v>
+      </c>
+      <c r="AE32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="13">
         <v>136</v>
       </c>
-      <c r="AD32" s="13">
-        <v>462</v>
-      </c>
-      <c r="AE32" s="13">
-        <v>539</v>
-      </c>
-      <c r="AF32" s="13">
-        <v>281</v>
-      </c>
       <c r="AG32" s="13">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="AH32" s="13">
-        <v>136</v>
-      </c>
-      <c r="AI32" s="13">
-        <v>256</v>
-      </c>
-      <c r="AJ32" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AI32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK32" s="13" t="s">
         <v>58</v>
@@ -4061,38 +4061,38 @@
       <c r="AQ32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT32" s="13" t="s">
-        <v>58</v>
+      <c r="AR32" s="13">
+        <v>302</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>417</v>
+      </c>
+      <c r="AT32" s="13">
+        <v>714</v>
       </c>
       <c r="AU32" s="13">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="AV32" s="13">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="AW32" s="13">
-        <v>349</v>
-      </c>
-      <c r="AX32" s="13" t="s">
-        <v>58</v>
+        <v>197</v>
+      </c>
+      <c r="AX32" s="13">
+        <v>140</v>
       </c>
       <c r="AY32" s="13">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AZ32" s="13">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="BA32" s="13">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="BB32" s="13">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:54" x14ac:dyDescent="0.3">
@@ -4168,88 +4168,88 @@
         <v>0</v>
       </c>
       <c r="AA33" s="15">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="AB33" s="15">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="AC33" s="15">
+        <v>539</v>
+      </c>
+      <c r="AD33" s="15">
+        <v>281</v>
+      </c>
+      <c r="AE33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="15">
         <v>136</v>
       </c>
-      <c r="AD33" s="15">
-        <v>462</v>
-      </c>
-      <c r="AE33" s="15">
-        <v>539</v>
-      </c>
-      <c r="AF33" s="15">
-        <v>281</v>
-      </c>
       <c r="AG33" s="15">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="AH33" s="15">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AI33" s="15">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="AJ33" s="15">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AK33" s="15">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="AL33" s="15">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AM33" s="15">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="AN33" s="15">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="AO33" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AP33" s="15">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AQ33" s="15">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AR33" s="15">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="AS33" s="15">
-        <v>39</v>
+        <v>417</v>
       </c>
       <c r="AT33" s="15">
-        <v>302</v>
+        <v>714</v>
       </c>
       <c r="AU33" s="15">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="AV33" s="15">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="AW33" s="15">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="AX33" s="15">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AY33" s="15">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AZ33" s="15">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="BA33" s="15">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="BB33" s="15">
-        <v>58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4375,11 +4375,11 @@
       <c r="X35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z35" s="15" t="s">
-        <v>58</v>
+      <c r="Y35" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="15">
+        <v>0</v>
       </c>
       <c r="AA35" s="15">
         <v>0</v>
@@ -4591,11 +4591,11 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="11">
+        <v>0</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
@@ -4621,11 +4621,11 @@
       <c r="AH37" s="11">
         <v>0</v>
       </c>
-      <c r="AI37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="11">
-        <v>0</v>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK37" s="11" t="s">
         <v>58</v>
@@ -4748,11 +4748,11 @@
       <c r="X38" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z38" s="19" t="s">
-        <v>58</v>
+      <c r="Y38" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="19">
+        <v>0</v>
       </c>
       <c r="AA38" s="19">
         <v>0</v>
@@ -4906,94 +4906,94 @@
         <v>0</v>
       </c>
       <c r="Y39" s="15">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="Z39" s="15">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="AA39" s="15">
-        <v>2157</v>
+        <v>3754</v>
       </c>
       <c r="AB39" s="15">
-        <v>1818</v>
+        <v>2303</v>
       </c>
       <c r="AC39" s="15">
-        <v>3754</v>
+        <v>2026</v>
       </c>
       <c r="AD39" s="15">
-        <v>2303</v>
+        <v>2462</v>
       </c>
       <c r="AE39" s="15">
-        <v>2026</v>
+        <v>1768</v>
       </c>
       <c r="AF39" s="15">
-        <v>2462</v>
+        <v>1484</v>
       </c>
       <c r="AG39" s="15">
-        <v>1768</v>
+        <v>1916</v>
       </c>
       <c r="AH39" s="15">
-        <v>1484</v>
+        <v>2074</v>
       </c>
       <c r="AI39" s="15">
-        <v>1916</v>
+        <v>3055</v>
       </c>
       <c r="AJ39" s="15">
-        <v>2074</v>
+        <v>2420</v>
       </c>
       <c r="AK39" s="15">
-        <v>3055</v>
+        <v>2662</v>
       </c>
       <c r="AL39" s="15">
-        <v>2420</v>
+        <v>2913</v>
       </c>
       <c r="AM39" s="15">
-        <v>2662</v>
+        <v>2941</v>
       </c>
       <c r="AN39" s="15">
+        <v>2962</v>
+      </c>
+      <c r="AO39" s="15">
+        <v>2193</v>
+      </c>
+      <c r="AP39" s="15">
+        <v>3588</v>
+      </c>
+      <c r="AQ39" s="15">
+        <v>2862</v>
+      </c>
+      <c r="AR39" s="15">
+        <v>2713</v>
+      </c>
+      <c r="AS39" s="15">
+        <v>2457</v>
+      </c>
+      <c r="AT39" s="15">
+        <v>2669</v>
+      </c>
+      <c r="AU39" s="15">
         <v>2913</v>
       </c>
-      <c r="AO39" s="15">
-        <v>2941</v>
-      </c>
-      <c r="AP39" s="15">
-        <v>2962</v>
-      </c>
-      <c r="AQ39" s="15">
-        <v>2193</v>
-      </c>
-      <c r="AR39" s="15">
-        <v>3588</v>
-      </c>
-      <c r="AS39" s="15">
-        <v>2862</v>
-      </c>
-      <c r="AT39" s="15">
-        <v>2713</v>
-      </c>
-      <c r="AU39" s="15">
-        <v>2457</v>
-      </c>
       <c r="AV39" s="15">
-        <v>2669</v>
+        <v>2443</v>
       </c>
       <c r="AW39" s="15">
-        <v>2913</v>
+        <v>2428</v>
       </c>
       <c r="AX39" s="15">
-        <v>2443</v>
+        <v>2018</v>
       </c>
       <c r="AY39" s="15">
-        <v>2428</v>
+        <v>2112</v>
       </c>
       <c r="AZ39" s="15">
-        <v>2018</v>
+        <v>2039</v>
       </c>
       <c r="BA39" s="15">
-        <v>2112</v>
+        <v>2579</v>
       </c>
       <c r="BB39" s="15">
-        <v>2039</v>
+        <v>2899</v>
       </c>
     </row>
     <row r="40" spans="2:54" x14ac:dyDescent="0.3">
@@ -5525,11 +5525,11 @@
       <c r="AG46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI46" s="11" t="s">
-        <v>58</v>
+      <c r="AH46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="11">
+        <v>0</v>
       </c>
       <c r="AJ46" s="11">
         <v>0</v>
@@ -5538,13 +5538,13 @@
         <v>0</v>
       </c>
       <c r="AL46" s="11">
-        <v>0</v>
+        <v>650545</v>
       </c>
       <c r="AM46" s="11">
         <v>0</v>
       </c>
       <c r="AN46" s="11">
-        <v>650545</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="11">
         <v>0</v>
@@ -5552,11 +5552,11 @@
       <c r="AP46" s="11">
         <v>0</v>
       </c>
-      <c r="AQ46" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="11">
-        <v>0</v>
+      <c r="AQ46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS46" s="11" t="s">
         <v>58</v>
@@ -5657,95 +5657,95 @@
       <c r="X47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z47" s="13" t="s">
-        <v>58</v>
+      <c r="Y47" s="13">
+        <v>186426</v>
+      </c>
+      <c r="Z47" s="13">
+        <v>190338</v>
       </c>
       <c r="AA47" s="13">
-        <v>186426</v>
+        <v>415508</v>
       </c>
       <c r="AB47" s="13">
-        <v>190338</v>
+        <v>231200</v>
       </c>
       <c r="AC47" s="13">
-        <v>415508</v>
+        <v>210085</v>
       </c>
       <c r="AD47" s="13">
-        <v>231200</v>
+        <v>359796</v>
       </c>
       <c r="AE47" s="13">
-        <v>210085</v>
+        <v>320594</v>
       </c>
       <c r="AF47" s="13">
-        <v>359796</v>
+        <v>246755</v>
       </c>
       <c r="AG47" s="13">
-        <v>320594</v>
+        <v>334788</v>
       </c>
       <c r="AH47" s="13">
-        <v>246755</v>
+        <v>463301</v>
       </c>
       <c r="AI47" s="13">
-        <v>334788</v>
+        <v>679057</v>
       </c>
       <c r="AJ47" s="13">
-        <v>463301</v>
+        <v>501899</v>
       </c>
       <c r="AK47" s="13">
-        <v>679057</v>
+        <v>530788</v>
       </c>
       <c r="AL47" s="13">
-        <v>501899</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="13">
-        <v>530788</v>
+        <v>727509</v>
       </c>
       <c r="AN47" s="13">
-        <v>0</v>
+        <v>764159</v>
       </c>
       <c r="AO47" s="13">
-        <v>727509</v>
+        <v>576692</v>
       </c>
       <c r="AP47" s="13">
-        <v>764159</v>
+        <v>886465</v>
       </c>
       <c r="AQ47" s="13">
-        <v>576692</v>
+        <v>750990</v>
       </c>
       <c r="AR47" s="13">
-        <v>886465</v>
+        <v>693560</v>
       </c>
       <c r="AS47" s="13">
-        <v>750990</v>
+        <v>616750</v>
       </c>
       <c r="AT47" s="13">
-        <v>693560</v>
+        <v>718397</v>
       </c>
       <c r="AU47" s="13">
-        <v>616750</v>
+        <v>1046401</v>
       </c>
       <c r="AV47" s="13">
-        <v>718397</v>
+        <v>1047653</v>
       </c>
       <c r="AW47" s="13">
-        <v>1046401</v>
+        <v>967192</v>
       </c>
       <c r="AX47" s="13">
-        <v>1047653</v>
+        <v>819584</v>
       </c>
       <c r="AY47" s="13">
-        <v>967192</v>
+        <v>865056</v>
       </c>
       <c r="AZ47" s="13">
-        <v>819584</v>
+        <v>731915</v>
       </c>
       <c r="BA47" s="13">
-        <v>865056</v>
+        <v>881779</v>
       </c>
       <c r="BB47" s="13">
-        <v>731915</v>
+        <v>1023275</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -5815,94 +5815,94 @@
         <v>0</v>
       </c>
       <c r="Y48" s="15">
-        <v>0</v>
+        <v>186426</v>
       </c>
       <c r="Z48" s="15">
-        <v>0</v>
+        <v>190338</v>
       </c>
       <c r="AA48" s="15">
-        <v>186426</v>
+        <v>415508</v>
       </c>
       <c r="AB48" s="15">
-        <v>190338</v>
+        <v>231200</v>
       </c>
       <c r="AC48" s="15">
-        <v>415508</v>
+        <v>210085</v>
       </c>
       <c r="AD48" s="15">
-        <v>231200</v>
+        <v>359796</v>
       </c>
       <c r="AE48" s="15">
-        <v>210085</v>
+        <v>320594</v>
       </c>
       <c r="AF48" s="15">
-        <v>359796</v>
+        <v>246755</v>
       </c>
       <c r="AG48" s="15">
-        <v>320594</v>
+        <v>334788</v>
       </c>
       <c r="AH48" s="15">
-        <v>246755</v>
+        <v>463301</v>
       </c>
       <c r="AI48" s="15">
-        <v>334788</v>
+        <v>679057</v>
       </c>
       <c r="AJ48" s="15">
-        <v>463301</v>
+        <v>501899</v>
       </c>
       <c r="AK48" s="15">
-        <v>679057</v>
+        <v>530788</v>
       </c>
       <c r="AL48" s="15">
-        <v>501899</v>
+        <v>650545</v>
       </c>
       <c r="AM48" s="15">
-        <v>530788</v>
+        <v>727509</v>
       </c>
       <c r="AN48" s="15">
-        <v>650545</v>
+        <v>764159</v>
       </c>
       <c r="AO48" s="15">
-        <v>727509</v>
+        <v>576692</v>
       </c>
       <c r="AP48" s="15">
-        <v>764159</v>
+        <v>886465</v>
       </c>
       <c r="AQ48" s="15">
-        <v>576692</v>
+        <v>750990</v>
       </c>
       <c r="AR48" s="15">
-        <v>886465</v>
+        <v>693560</v>
       </c>
       <c r="AS48" s="15">
-        <v>750990</v>
+        <v>616750</v>
       </c>
       <c r="AT48" s="15">
-        <v>693560</v>
+        <v>718397</v>
       </c>
       <c r="AU48" s="15">
-        <v>616750</v>
+        <v>1046401</v>
       </c>
       <c r="AV48" s="15">
-        <v>718397</v>
+        <v>1047653</v>
       </c>
       <c r="AW48" s="15">
-        <v>1046401</v>
+        <v>967192</v>
       </c>
       <c r="AX48" s="15">
-        <v>1047653</v>
+        <v>819584</v>
       </c>
       <c r="AY48" s="15">
-        <v>967192</v>
+        <v>865056</v>
       </c>
       <c r="AZ48" s="15">
-        <v>819584</v>
+        <v>731915</v>
       </c>
       <c r="BA48" s="15">
-        <v>865056</v>
+        <v>881779</v>
       </c>
       <c r="BB48" s="15">
-        <v>731915</v>
+        <v>1023275</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6057,44 +6057,44 @@
       <c r="AG50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI50" s="11" t="s">
-        <v>58</v>
+      <c r="AH50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="11">
+        <v>24019</v>
       </c>
       <c r="AJ50" s="11">
-        <v>0</v>
+        <v>53161</v>
       </c>
       <c r="AK50" s="11">
-        <v>24019</v>
+        <v>90948</v>
       </c>
       <c r="AL50" s="11">
-        <v>53161</v>
+        <v>56770</v>
       </c>
       <c r="AM50" s="11">
-        <v>90948</v>
+        <v>0</v>
       </c>
       <c r="AN50" s="11">
-        <v>56770</v>
+        <v>9051</v>
       </c>
       <c r="AO50" s="11">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AP50" s="11">
-        <v>9051</v>
+        <v>54191</v>
       </c>
       <c r="AQ50" s="11">
-        <v>4686</v>
-      </c>
-      <c r="AR50" s="11">
-        <v>54191</v>
-      </c>
-      <c r="AS50" s="11">
         <v>9127</v>
       </c>
-      <c r="AT50" s="11">
-        <v>68293</v>
+      <c r="AR50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS50" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU50" s="11" t="s">
         <v>58</v>
@@ -6195,32 +6195,32 @@
       <c r="Z51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB51" s="13" t="s">
-        <v>58</v>
+      <c r="AA51" s="13">
+        <v>13008</v>
+      </c>
+      <c r="AB51" s="13">
+        <v>52835</v>
       </c>
       <c r="AC51" s="13">
-        <v>13008</v>
+        <v>71380</v>
       </c>
       <c r="AD51" s="13">
-        <v>52835</v>
+        <v>48128</v>
       </c>
       <c r="AE51" s="13">
-        <v>71380</v>
+        <v>0</v>
       </c>
       <c r="AF51" s="13">
-        <v>48128</v>
+        <v>24706</v>
       </c>
       <c r="AG51" s="13">
-        <v>0</v>
+        <v>56761</v>
       </c>
       <c r="AH51" s="13">
-        <v>24706</v>
+        <v>0</v>
       </c>
       <c r="AI51" s="13">
-        <v>56761</v>
+        <v>0</v>
       </c>
       <c r="AJ51" s="13">
         <v>0</v>
@@ -6243,41 +6243,41 @@
       <c r="AP51" s="13">
         <v>0</v>
       </c>
-      <c r="AQ51" s="13">
-        <v>0</v>
+      <c r="AQ51" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AR51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT51" s="13" t="s">
-        <v>58</v>
+        <v>68293</v>
+      </c>
+      <c r="AS51" s="13">
+        <v>98168</v>
+      </c>
+      <c r="AT51" s="13">
+        <v>212355</v>
       </c>
       <c r="AU51" s="13">
-        <v>98168</v>
+        <v>113493</v>
       </c>
       <c r="AV51" s="13">
-        <v>212355</v>
+        <v>0</v>
       </c>
       <c r="AW51" s="13">
-        <v>113493</v>
+        <v>72093</v>
       </c>
       <c r="AX51" s="13">
-        <v>0</v>
+        <v>51244</v>
       </c>
       <c r="AY51" s="13">
-        <v>72093</v>
+        <v>11972</v>
       </c>
       <c r="AZ51" s="13">
-        <v>51244</v>
+        <v>17738</v>
       </c>
       <c r="BA51" s="13">
-        <v>11972</v>
+        <v>20153</v>
       </c>
       <c r="BB51" s="13">
-        <v>17738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:54" x14ac:dyDescent="0.3">
@@ -6353,88 +6353,88 @@
         <v>0</v>
       </c>
       <c r="AA52" s="15">
-        <v>0</v>
+        <v>13008</v>
       </c>
       <c r="AB52" s="15">
-        <v>0</v>
+        <v>52835</v>
       </c>
       <c r="AC52" s="15">
-        <v>13008</v>
+        <v>71380</v>
       </c>
       <c r="AD52" s="15">
-        <v>52835</v>
+        <v>48128</v>
       </c>
       <c r="AE52" s="15">
-        <v>71380</v>
+        <v>0</v>
       </c>
       <c r="AF52" s="15">
-        <v>48128</v>
+        <v>24706</v>
       </c>
       <c r="AG52" s="15">
-        <v>0</v>
+        <v>56761</v>
       </c>
       <c r="AH52" s="15">
-        <v>24706</v>
+        <v>0</v>
       </c>
       <c r="AI52" s="15">
-        <v>56761</v>
+        <v>24019</v>
       </c>
       <c r="AJ52" s="15">
-        <v>0</v>
+        <v>53161</v>
       </c>
       <c r="AK52" s="15">
-        <v>24019</v>
+        <v>90948</v>
       </c>
       <c r="AL52" s="15">
-        <v>53161</v>
+        <v>56770</v>
       </c>
       <c r="AM52" s="15">
-        <v>90948</v>
+        <v>0</v>
       </c>
       <c r="AN52" s="15">
-        <v>56770</v>
+        <v>9051</v>
       </c>
       <c r="AO52" s="15">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AP52" s="15">
-        <v>9051</v>
+        <v>54191</v>
       </c>
       <c r="AQ52" s="15">
-        <v>4686</v>
+        <v>9127</v>
       </c>
       <c r="AR52" s="15">
-        <v>54191</v>
+        <v>68293</v>
       </c>
       <c r="AS52" s="15">
-        <v>9127</v>
+        <v>98168</v>
       </c>
       <c r="AT52" s="15">
-        <v>68293</v>
+        <v>212355</v>
       </c>
       <c r="AU52" s="15">
-        <v>98168</v>
+        <v>113493</v>
       </c>
       <c r="AV52" s="15">
-        <v>212355</v>
+        <v>0</v>
       </c>
       <c r="AW52" s="15">
-        <v>113493</v>
+        <v>72093</v>
       </c>
       <c r="AX52" s="15">
-        <v>0</v>
+        <v>51244</v>
       </c>
       <c r="AY52" s="15">
-        <v>72093</v>
+        <v>11972</v>
       </c>
       <c r="AZ52" s="15">
-        <v>51244</v>
+        <v>17738</v>
       </c>
       <c r="BA52" s="15">
-        <v>11972</v>
+        <v>20153</v>
       </c>
       <c r="BB52" s="15">
-        <v>17738</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6562,11 +6562,11 @@
       <c r="X54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z54" s="15" t="s">
-        <v>58</v>
+      <c r="Y54" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="15">
+        <v>0</v>
       </c>
       <c r="AA54" s="15">
         <v>0</v>
@@ -6778,11 +6778,11 @@
       <c r="X56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z56" s="11" t="s">
-        <v>58</v>
+      <c r="Y56" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="11">
+        <v>0</v>
       </c>
       <c r="AA56" s="11">
         <v>0</v>
@@ -6832,11 +6832,11 @@
       <c r="AP56" s="11">
         <v>0</v>
       </c>
-      <c r="AQ56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR56" s="11">
-        <v>0</v>
+      <c r="AQ56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AS56" s="11" t="s">
         <v>58</v>
@@ -6937,11 +6937,11 @@
       <c r="X57" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="Y57" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z57" s="19" t="s">
-        <v>58</v>
+      <c r="Y57" s="19">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="19">
+        <v>0</v>
       </c>
       <c r="AA57" s="19">
         <v>0</v>
@@ -7153,11 +7153,11 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="11">
+        <v>0</v>
       </c>
       <c r="AA59" s="11">
         <v>0</v>
@@ -7311,94 +7311,94 @@
         <v>0</v>
       </c>
       <c r="Y60" s="19">
-        <v>0</v>
+        <v>186426</v>
       </c>
       <c r="Z60" s="19">
-        <v>0</v>
+        <v>190338</v>
       </c>
       <c r="AA60" s="19">
-        <v>186426</v>
+        <v>428516</v>
       </c>
       <c r="AB60" s="19">
-        <v>190338</v>
+        <v>284035</v>
       </c>
       <c r="AC60" s="19">
-        <v>428516</v>
+        <v>281465</v>
       </c>
       <c r="AD60" s="19">
-        <v>284035</v>
+        <v>407924</v>
       </c>
       <c r="AE60" s="19">
-        <v>281465</v>
+        <v>320594</v>
       </c>
       <c r="AF60" s="19">
-        <v>407924</v>
+        <v>271461</v>
       </c>
       <c r="AG60" s="19">
-        <v>320594</v>
+        <v>391549</v>
       </c>
       <c r="AH60" s="19">
-        <v>271461</v>
+        <v>463301</v>
       </c>
       <c r="AI60" s="19">
-        <v>391549</v>
+        <v>703076</v>
       </c>
       <c r="AJ60" s="19">
-        <v>463301</v>
+        <v>555060</v>
       </c>
       <c r="AK60" s="19">
-        <v>703076</v>
+        <v>621736</v>
       </c>
       <c r="AL60" s="19">
-        <v>555060</v>
+        <v>707315</v>
       </c>
       <c r="AM60" s="19">
-        <v>621736</v>
+        <v>727509</v>
       </c>
       <c r="AN60" s="19">
-        <v>707315</v>
+        <v>773210</v>
       </c>
       <c r="AO60" s="19">
-        <v>727509</v>
+        <v>581378</v>
       </c>
       <c r="AP60" s="19">
-        <v>773210</v>
+        <v>940656</v>
       </c>
       <c r="AQ60" s="19">
-        <v>581378</v>
+        <v>760117</v>
       </c>
       <c r="AR60" s="19">
-        <v>940656</v>
+        <v>761853</v>
       </c>
       <c r="AS60" s="19">
-        <v>760117</v>
+        <v>714918</v>
       </c>
       <c r="AT60" s="19">
-        <v>761853</v>
+        <v>930752</v>
       </c>
       <c r="AU60" s="19">
-        <v>714918</v>
+        <v>1159894</v>
       </c>
       <c r="AV60" s="19">
-        <v>930752</v>
+        <v>1047653</v>
       </c>
       <c r="AW60" s="19">
-        <v>1159894</v>
+        <v>1039285</v>
       </c>
       <c r="AX60" s="19">
-        <v>1047653</v>
+        <v>870828</v>
       </c>
       <c r="AY60" s="19">
-        <v>1039285</v>
+        <v>877028</v>
       </c>
       <c r="AZ60" s="19">
-        <v>870828</v>
+        <v>749653</v>
       </c>
       <c r="BA60" s="19">
-        <v>877028</v>
+        <v>901932</v>
       </c>
       <c r="BB60" s="19">
-        <v>749653</v>
+        <v>1023275</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -7942,14 +7942,14 @@
       <c r="AK67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL67" s="11" t="s">
-        <v>58</v>
+      <c r="AL67" s="11">
+        <v>241928226</v>
       </c>
       <c r="AM67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN67" s="11">
-        <v>241928226</v>
+      <c r="AN67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AO67" s="11" t="s">
         <v>58</v>
@@ -8062,95 +8062,95 @@
       <c r="X68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z68" s="13" t="s">
-        <v>58</v>
+      <c r="Y68" s="13">
+        <v>86428373</v>
+      </c>
+      <c r="Z68" s="13">
+        <v>104696370</v>
       </c>
       <c r="AA68" s="13">
-        <v>86428373</v>
+        <v>114844666</v>
       </c>
       <c r="AB68" s="13">
-        <v>104696370</v>
+        <v>125583922</v>
       </c>
       <c r="AC68" s="13">
-        <v>114844666</v>
+        <v>141281103</v>
       </c>
       <c r="AD68" s="13">
-        <v>125583922</v>
+        <v>164968363</v>
       </c>
       <c r="AE68" s="13">
-        <v>141281103</v>
+        <v>181331448</v>
       </c>
       <c r="AF68" s="13">
-        <v>164968363</v>
+        <v>183052671</v>
       </c>
       <c r="AG68" s="13">
-        <v>181331448</v>
+        <v>201679518</v>
       </c>
       <c r="AH68" s="13">
-        <v>183052671</v>
+        <v>223385246</v>
       </c>
       <c r="AI68" s="13">
-        <v>201679518</v>
+        <v>229411149</v>
       </c>
       <c r="AJ68" s="13">
-        <v>223385246</v>
+        <v>228032258</v>
       </c>
       <c r="AK68" s="13">
-        <v>229411149</v>
-      </c>
-      <c r="AL68" s="13">
-        <v>228032258</v>
+        <v>232495839</v>
+      </c>
+      <c r="AL68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM68" s="13">
-        <v>232495839</v>
-      </c>
-      <c r="AN68" s="13" t="s">
-        <v>58</v>
+        <v>247367902</v>
+      </c>
+      <c r="AN68" s="13">
+        <v>261250940</v>
       </c>
       <c r="AO68" s="13">
-        <v>247367902</v>
+        <v>265267709</v>
       </c>
       <c r="AP68" s="13">
-        <v>261250940</v>
+        <v>265011958</v>
       </c>
       <c r="AQ68" s="13">
-        <v>265267709</v>
+        <v>266025505</v>
       </c>
       <c r="AR68" s="13">
-        <v>265011958</v>
+        <v>287664869</v>
       </c>
       <c r="AS68" s="13">
-        <v>266025505</v>
+        <v>302328431</v>
       </c>
       <c r="AT68" s="13">
-        <v>287664869</v>
+        <v>367466496</v>
       </c>
       <c r="AU68" s="13">
-        <v>302328431</v>
+        <v>408112715</v>
       </c>
       <c r="AV68" s="13">
-        <v>367466496</v>
+        <v>428838723</v>
       </c>
       <c r="AW68" s="13">
-        <v>408112715</v>
+        <v>433523980</v>
       </c>
       <c r="AX68" s="13">
-        <v>428838723</v>
+        <v>436413206</v>
       </c>
       <c r="AY68" s="13">
-        <v>433523980</v>
+        <v>417095468</v>
       </c>
       <c r="AZ68" s="13">
-        <v>436413206</v>
+        <v>369467441</v>
       </c>
       <c r="BA68" s="13">
-        <v>417095468</v>
+        <v>351306375</v>
       </c>
       <c r="BB68" s="13">
-        <v>369467441</v>
+        <v>352975164</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -8308,41 +8308,41 @@
       <c r="AH70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ70" s="11" t="s">
-        <v>58</v>
+      <c r="AI70" s="11">
+        <v>252831579</v>
+      </c>
+      <c r="AJ70" s="11">
+        <v>242744292</v>
       </c>
       <c r="AK70" s="11">
-        <v>252831579</v>
+        <v>239968338</v>
       </c>
       <c r="AL70" s="11">
-        <v>242744292</v>
-      </c>
-      <c r="AM70" s="11">
-        <v>239968338</v>
+        <v>253437500</v>
+      </c>
+      <c r="AM70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AN70" s="11">
-        <v>253437500</v>
-      </c>
-      <c r="AO70" s="11" t="s">
-        <v>58</v>
+        <v>244621622</v>
+      </c>
+      <c r="AO70" s="11">
+        <v>246631579</v>
       </c>
       <c r="AP70" s="11">
-        <v>244621622</v>
+        <v>223008230</v>
       </c>
       <c r="AQ70" s="11">
-        <v>246631579</v>
-      </c>
-      <c r="AR70" s="11">
-        <v>223008230</v>
-      </c>
-      <c r="AS70" s="11">
         <v>234025641</v>
       </c>
-      <c r="AT70" s="11">
-        <v>226135762</v>
+      <c r="AR70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU70" s="11" t="s">
         <v>58</v>
@@ -8443,33 +8443,33 @@
       <c r="Z71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB71" s="13" t="s">
-        <v>58</v>
+      <c r="AA71" s="13">
+        <v>95647059</v>
+      </c>
+      <c r="AB71" s="13">
+        <v>114361472</v>
       </c>
       <c r="AC71" s="13">
-        <v>95647059</v>
+        <v>132430427</v>
       </c>
       <c r="AD71" s="13">
-        <v>114361472</v>
-      </c>
-      <c r="AE71" s="13">
-        <v>132430427</v>
+        <v>171274021</v>
+      </c>
+      <c r="AE71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF71" s="13">
-        <v>171274021</v>
-      </c>
-      <c r="AG71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH71" s="13">
         <v>181661765</v>
       </c>
-      <c r="AI71" s="13">
+      <c r="AG71" s="13">
         <v>221722656</v>
       </c>
+      <c r="AH71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI71" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AJ71" s="13" t="s">
         <v>58</v>
       </c>
@@ -8494,38 +8494,38 @@
       <c r="AQ71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT71" s="13" t="s">
-        <v>58</v>
+      <c r="AR71" s="13">
+        <v>226135762</v>
+      </c>
+      <c r="AS71" s="13">
+        <v>235414868</v>
+      </c>
+      <c r="AT71" s="13">
+        <v>297415966</v>
       </c>
       <c r="AU71" s="13">
-        <v>235414868</v>
-      </c>
-      <c r="AV71" s="13">
-        <v>297415966</v>
+        <v>325194842</v>
+      </c>
+      <c r="AV71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AW71" s="13">
-        <v>325194842</v>
-      </c>
-      <c r="AX71" s="13" t="s">
-        <v>58</v>
+        <v>365954315</v>
+      </c>
+      <c r="AX71" s="13">
+        <v>366028571</v>
       </c>
       <c r="AY71" s="13">
-        <v>365954315</v>
+        <v>315052632</v>
       </c>
       <c r="AZ71" s="13">
-        <v>366028571</v>
+        <v>305827586</v>
       </c>
       <c r="BA71" s="13">
-        <v>315052632</v>
-      </c>
-      <c r="BB71" s="13">
-        <v>305827586</v>
+        <v>292072464</v>
+      </c>
+      <c r="BB71" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/dode/shedoos/product/monthly_seprated.xlsx
+++ b/database/industries/dode/shedoos/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shedoos\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shedoos\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54CCE8C-E5D1-4821-A676-D71CA9C73CDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6309030-2B50-4EDD-90CF-242E4A47F268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="88">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>شدوص-دوده‌ صنعتی‌ پارس‌</t>
@@ -37,12 +37,6 @@
     <t>مقدار تولید</t>
   </si>
   <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
-  </si>
-  <si>
     <t>ماه 10 منتهی به 1397/10</t>
   </si>
   <si>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -766,12 +766,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -826,7 +826,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -883,7 +883,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -940,7 +940,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -995,7 +995,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1164,7 +1164,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1321,7 +1321,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1376,7 +1376,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1433,7 +1433,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1522,26 +1522,26 @@
       <c r="AE11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF11" s="11" t="s">
-        <v>58</v>
+      <c r="AF11" s="11">
+        <v>0</v>
       </c>
       <c r="AG11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH11" s="11">
-        <v>0</v>
+      <c r="AH11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ11" s="11" t="s">
-        <v>58</v>
+      <c r="AJ11" s="11">
+        <v>2873</v>
       </c>
       <c r="AK11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL11" s="11">
-        <v>2873</v>
+      <c r="AL11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM11" s="11" t="s">
         <v>58</v>
@@ -1592,7 +1592,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1654,104 +1654,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>2437</v>
+      </c>
+      <c r="X12" s="13">
+        <v>2209</v>
       </c>
       <c r="Y12" s="13">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="Z12" s="13">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AA12" s="13">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AB12" s="13">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AC12" s="13">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AD12" s="13">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AE12" s="13">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AF12" s="13">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AG12" s="13">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AH12" s="13">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AI12" s="13">
-        <v>3170</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>2426</v>
+        <v>2697</v>
+      </c>
+      <c r="AJ12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK12" s="13">
-        <v>2697</v>
-      </c>
-      <c r="AL12" s="13" t="s">
-        <v>58</v>
+        <v>2743</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>3033</v>
       </c>
       <c r="AM12" s="13">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AN12" s="13">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AO12" s="13">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AP12" s="13">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AQ12" s="13">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AR12" s="13">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AS12" s="13">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AT12" s="13">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AU12" s="13">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AV12" s="13">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AW12" s="13">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AX12" s="13">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="AY12" s="13">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="AZ12" s="13">
-        <v>2396</v>
+        <v>2590</v>
       </c>
       <c r="BA12" s="13">
-        <v>2312</v>
+        <v>1697</v>
       </c>
       <c r="BB12" s="13">
-        <v>2594</v>
+        <v>1925</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>61</v>
       </c>
@@ -1812,103 +1812,103 @@
         <v>0</v>
       </c>
       <c r="W13" s="15">
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="X13" s="15">
-        <v>0</v>
+        <v>2209</v>
       </c>
       <c r="Y13" s="15">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="Z13" s="15">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AA13" s="15">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AB13" s="15">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AC13" s="15">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AD13" s="15">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AE13" s="15">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AF13" s="15">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AG13" s="15">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AH13" s="15">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AI13" s="15">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AJ13" s="15">
-        <v>2426</v>
+        <v>2873</v>
       </c>
       <c r="AK13" s="15">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AL13" s="15">
-        <v>2873</v>
+        <v>3033</v>
       </c>
       <c r="AM13" s="15">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AN13" s="15">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AO13" s="15">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AP13" s="15">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AQ13" s="15">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AR13" s="15">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AS13" s="15">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AT13" s="15">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AU13" s="15">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AV13" s="15">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AW13" s="15">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AX13" s="15">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="AY13" s="15">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="AZ13" s="15">
-        <v>2396</v>
+        <v>2590</v>
       </c>
       <c r="BA13" s="15">
-        <v>2312</v>
+        <v>1697</v>
       </c>
       <c r="BB13" s="15">
-        <v>2594</v>
+        <v>1925</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>62</v>
       </c>
@@ -1965,7 +1965,7 @@
       <c r="BA14" s="9"/>
       <c r="BB14" s="9"/>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
@@ -2054,14 +2054,14 @@
       <c r="AE15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF15" s="11" t="s">
-        <v>58</v>
+      <c r="AF15" s="11">
+        <v>0</v>
       </c>
       <c r="AG15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH15" s="11">
-        <v>0</v>
+      <c r="AH15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI15" s="11" t="s">
         <v>58</v>
@@ -2124,7 +2124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>59</v>
       </c>
@@ -2192,11 +2192,11 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>0</v>
       </c>
       <c r="AA16" s="13">
         <v>0</v>
@@ -2216,11 +2216,11 @@
       <c r="AF16" s="13">
         <v>0</v>
       </c>
-      <c r="AG16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>0</v>
+      <c r="AG16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH16" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI16" s="13" t="s">
         <v>58</v>
@@ -2246,8 +2246,8 @@
       <c r="AP16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ16" s="13" t="s">
-        <v>58</v>
+      <c r="AQ16" s="13">
+        <v>0</v>
       </c>
       <c r="AR16" s="13">
         <v>0</v>
@@ -2283,7 +2283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
         <v>64</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="16" t="s">
         <v>65</v>
       </c>
@@ -2497,7 +2497,7 @@
       <c r="BA18" s="17"/>
       <c r="BB18" s="17"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>66</v>
       </c>
@@ -2557,11 +2557,11 @@
       <c r="V19" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="15" t="s">
-        <v>58</v>
+      <c r="W19" s="15">
+        <v>0</v>
+      </c>
+      <c r="X19" s="15">
+        <v>0</v>
       </c>
       <c r="Y19" s="15">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>67</v>
       </c>
@@ -2715,103 +2715,103 @@
         <v>0</v>
       </c>
       <c r="W20" s="19">
-        <v>0</v>
+        <v>2437</v>
       </c>
       <c r="X20" s="19">
-        <v>0</v>
+        <v>2209</v>
       </c>
       <c r="Y20" s="19">
-        <v>2437</v>
+        <v>2374</v>
       </c>
       <c r="Z20" s="19">
-        <v>2209</v>
+        <v>2253</v>
       </c>
       <c r="AA20" s="19">
-        <v>2374</v>
+        <v>1716</v>
       </c>
       <c r="AB20" s="19">
-        <v>2253</v>
+        <v>2192</v>
       </c>
       <c r="AC20" s="19">
-        <v>1716</v>
+        <v>1585</v>
       </c>
       <c r="AD20" s="19">
-        <v>2192</v>
+        <v>1622</v>
       </c>
       <c r="AE20" s="19">
-        <v>1585</v>
+        <v>2385</v>
       </c>
       <c r="AF20" s="19">
-        <v>1622</v>
+        <v>2057</v>
       </c>
       <c r="AG20" s="19">
-        <v>2385</v>
+        <v>3170</v>
       </c>
       <c r="AH20" s="19">
-        <v>2057</v>
+        <v>2426</v>
       </c>
       <c r="AI20" s="19">
-        <v>3170</v>
+        <v>2697</v>
       </c>
       <c r="AJ20" s="19">
-        <v>2426</v>
+        <v>2873</v>
       </c>
       <c r="AK20" s="19">
-        <v>2697</v>
+        <v>2743</v>
       </c>
       <c r="AL20" s="19">
-        <v>2873</v>
+        <v>3033</v>
       </c>
       <c r="AM20" s="19">
-        <v>2743</v>
+        <v>3020</v>
       </c>
       <c r="AN20" s="19">
-        <v>3033</v>
+        <v>3000</v>
       </c>
       <c r="AO20" s="19">
-        <v>3020</v>
+        <v>3037</v>
       </c>
       <c r="AP20" s="19">
-        <v>3000</v>
+        <v>2950</v>
       </c>
       <c r="AQ20" s="19">
-        <v>3037</v>
+        <v>2006</v>
       </c>
       <c r="AR20" s="19">
-        <v>2950</v>
+        <v>2942</v>
       </c>
       <c r="AS20" s="19">
-        <v>2006</v>
+        <v>2784</v>
       </c>
       <c r="AT20" s="19">
-        <v>2942</v>
+        <v>2412</v>
       </c>
       <c r="AU20" s="19">
-        <v>2784</v>
+        <v>2274</v>
       </c>
       <c r="AV20" s="19">
-        <v>2412</v>
+        <v>2718</v>
       </c>
       <c r="AW20" s="19">
-        <v>2274</v>
+        <v>2251</v>
       </c>
       <c r="AX20" s="19">
-        <v>2718</v>
+        <v>2396</v>
       </c>
       <c r="AY20" s="19">
-        <v>2251</v>
+        <v>2312</v>
       </c>
       <c r="AZ20" s="19">
-        <v>2396</v>
+        <v>2590</v>
       </c>
       <c r="BA20" s="19">
-        <v>2312</v>
+        <v>1697</v>
       </c>
       <c r="BB20" s="19">
-        <v>2594</v>
+        <v>1925</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -2866,7 +2866,7 @@
       <c r="BA21" s="1"/>
       <c r="BB21" s="1"/>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -2921,7 +2921,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -2976,7 +2976,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>68</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3188,7 +3188,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>69</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>56</v>
       </c>
@@ -3334,26 +3334,26 @@
       <c r="AE27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF27" s="11" t="s">
-        <v>58</v>
+      <c r="AF27" s="11">
+        <v>0</v>
       </c>
       <c r="AG27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH27" s="11">
-        <v>0</v>
+      <c r="AH27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ27" s="11" t="s">
-        <v>58</v>
+      <c r="AJ27" s="11">
+        <v>2689</v>
       </c>
       <c r="AK27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL27" s="11">
-        <v>2689</v>
+      <c r="AL27" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>58</v>
@@ -3404,7 +3404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>59</v>
       </c>
@@ -3466,104 +3466,104 @@
       <c r="V28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X28" s="13" t="s">
-        <v>58</v>
+      <c r="W28" s="13">
+        <v>2157</v>
+      </c>
+      <c r="X28" s="13">
+        <v>1818</v>
       </c>
       <c r="Y28" s="13">
-        <v>2157</v>
+        <v>3618</v>
       </c>
       <c r="Z28" s="13">
-        <v>1818</v>
+        <v>1841</v>
       </c>
       <c r="AA28" s="13">
-        <v>3618</v>
+        <v>1487</v>
       </c>
       <c r="AB28" s="13">
-        <v>1841</v>
+        <v>2181</v>
       </c>
       <c r="AC28" s="13">
-        <v>1487</v>
+        <v>1768</v>
       </c>
       <c r="AD28" s="13">
-        <v>2181</v>
+        <v>1348</v>
       </c>
       <c r="AE28" s="13">
-        <v>1768</v>
+        <v>1660</v>
       </c>
       <c r="AF28" s="13">
-        <v>1348</v>
+        <v>2074</v>
       </c>
       <c r="AG28" s="13">
-        <v>1660</v>
+        <v>2960</v>
       </c>
       <c r="AH28" s="13">
+        <v>2201</v>
+      </c>
+      <c r="AI28" s="13">
+        <v>2283</v>
+      </c>
+      <c r="AJ28" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK28" s="13">
+        <v>2941</v>
+      </c>
+      <c r="AL28" s="13">
+        <v>2925</v>
+      </c>
+      <c r="AM28" s="13">
+        <v>2174</v>
+      </c>
+      <c r="AN28" s="13">
+        <v>3345</v>
+      </c>
+      <c r="AO28" s="13">
+        <v>2823</v>
+      </c>
+      <c r="AP28" s="13">
+        <v>2411</v>
+      </c>
+      <c r="AQ28" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AR28" s="13">
+        <v>1955</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>2564</v>
+      </c>
+      <c r="AT28" s="13">
+        <v>2443</v>
+      </c>
+      <c r="AU28" s="13">
+        <v>2231</v>
+      </c>
+      <c r="AV28" s="13">
+        <v>1878</v>
+      </c>
+      <c r="AW28" s="13">
         <v>2074</v>
       </c>
-      <c r="AI28" s="13">
-        <v>2960</v>
-      </c>
-      <c r="AJ28" s="13">
-        <v>2201</v>
-      </c>
-      <c r="AK28" s="13">
-        <v>2283</v>
-      </c>
-      <c r="AL28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM28" s="13">
-        <v>2941</v>
-      </c>
-      <c r="AN28" s="13">
-        <v>2925</v>
-      </c>
-      <c r="AO28" s="13">
-        <v>2174</v>
-      </c>
-      <c r="AP28" s="13">
-        <v>3345</v>
-      </c>
-      <c r="AQ28" s="13">
-        <v>2823</v>
-      </c>
-      <c r="AR28" s="13">
-        <v>2411</v>
-      </c>
-      <c r="AS28" s="13">
-        <v>2040</v>
-      </c>
-      <c r="AT28" s="13">
-        <v>1955</v>
-      </c>
-      <c r="AU28" s="13">
-        <v>2564</v>
-      </c>
-      <c r="AV28" s="13">
-        <v>2443</v>
-      </c>
-      <c r="AW28" s="13">
-        <v>2231</v>
-      </c>
       <c r="AX28" s="13">
-        <v>1878</v>
+        <v>1981</v>
       </c>
       <c r="AY28" s="13">
-        <v>2074</v>
+        <v>2510</v>
       </c>
       <c r="AZ28" s="13">
-        <v>1981</v>
+        <v>2899</v>
       </c>
       <c r="BA28" s="13">
-        <v>2510</v>
+        <v>1866</v>
       </c>
       <c r="BB28" s="13">
-        <v>2899</v>
+        <v>1927</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
         <v>70</v>
       </c>
@@ -3624,103 +3624,103 @@
         <v>0</v>
       </c>
       <c r="W29" s="15">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="X29" s="15">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="Y29" s="15">
-        <v>2157</v>
+        <v>3618</v>
       </c>
       <c r="Z29" s="15">
-        <v>1818</v>
+        <v>1841</v>
       </c>
       <c r="AA29" s="15">
-        <v>3618</v>
+        <v>1487</v>
       </c>
       <c r="AB29" s="15">
-        <v>1841</v>
+        <v>2181</v>
       </c>
       <c r="AC29" s="15">
-        <v>1487</v>
+        <v>1768</v>
       </c>
       <c r="AD29" s="15">
-        <v>2181</v>
+        <v>1348</v>
       </c>
       <c r="AE29" s="15">
-        <v>1768</v>
+        <v>1660</v>
       </c>
       <c r="AF29" s="15">
-        <v>1348</v>
+        <v>2074</v>
       </c>
       <c r="AG29" s="15">
-        <v>1660</v>
+        <v>2960</v>
       </c>
       <c r="AH29" s="15">
+        <v>2201</v>
+      </c>
+      <c r="AI29" s="15">
+        <v>2283</v>
+      </c>
+      <c r="AJ29" s="15">
+        <v>2689</v>
+      </c>
+      <c r="AK29" s="15">
+        <v>2941</v>
+      </c>
+      <c r="AL29" s="15">
+        <v>2925</v>
+      </c>
+      <c r="AM29" s="15">
+        <v>2174</v>
+      </c>
+      <c r="AN29" s="15">
+        <v>3345</v>
+      </c>
+      <c r="AO29" s="15">
+        <v>2823</v>
+      </c>
+      <c r="AP29" s="15">
+        <v>2411</v>
+      </c>
+      <c r="AQ29" s="15">
+        <v>2040</v>
+      </c>
+      <c r="AR29" s="15">
+        <v>1955</v>
+      </c>
+      <c r="AS29" s="15">
+        <v>2564</v>
+      </c>
+      <c r="AT29" s="15">
+        <v>2443</v>
+      </c>
+      <c r="AU29" s="15">
+        <v>2231</v>
+      </c>
+      <c r="AV29" s="15">
+        <v>1878</v>
+      </c>
+      <c r="AW29" s="15">
         <v>2074</v>
       </c>
-      <c r="AI29" s="15">
-        <v>2960</v>
-      </c>
-      <c r="AJ29" s="15">
-        <v>2201</v>
-      </c>
-      <c r="AK29" s="15">
-        <v>2283</v>
-      </c>
-      <c r="AL29" s="15">
-        <v>2689</v>
-      </c>
-      <c r="AM29" s="15">
-        <v>2941</v>
-      </c>
-      <c r="AN29" s="15">
-        <v>2925</v>
-      </c>
-      <c r="AO29" s="15">
-        <v>2174</v>
-      </c>
-      <c r="AP29" s="15">
-        <v>3345</v>
-      </c>
-      <c r="AQ29" s="15">
-        <v>2823</v>
-      </c>
-      <c r="AR29" s="15">
-        <v>2411</v>
-      </c>
-      <c r="AS29" s="15">
-        <v>2040</v>
-      </c>
-      <c r="AT29" s="15">
-        <v>1955</v>
-      </c>
-      <c r="AU29" s="15">
-        <v>2564</v>
-      </c>
-      <c r="AV29" s="15">
-        <v>2443</v>
-      </c>
-      <c r="AW29" s="15">
-        <v>2231</v>
-      </c>
       <c r="AX29" s="15">
-        <v>1878</v>
+        <v>1981</v>
       </c>
       <c r="AY29" s="15">
-        <v>2074</v>
+        <v>2510</v>
       </c>
       <c r="AZ29" s="15">
-        <v>1981</v>
+        <v>2899</v>
       </c>
       <c r="BA29" s="15">
-        <v>2510</v>
+        <v>1866</v>
       </c>
       <c r="BB29" s="15">
-        <v>2899</v>
+        <v>1927</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>71</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>63</v>
       </c>
@@ -3866,41 +3866,41 @@
       <c r="AE31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG31" s="11" t="s">
-        <v>58</v>
+      <c r="AF31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="11">
+        <v>95</v>
       </c>
       <c r="AH31" s="11">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AI31" s="11">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="AJ31" s="11">
-        <v>219</v>
-      </c>
-      <c r="AK31" s="11">
-        <v>379</v>
+        <v>224</v>
+      </c>
+      <c r="AK31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL31" s="11">
-        <v>224</v>
-      </c>
-      <c r="AM31" s="11" t="s">
-        <v>58</v>
+        <v>37</v>
+      </c>
+      <c r="AM31" s="11">
+        <v>19</v>
       </c>
       <c r="AN31" s="11">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AO31" s="11">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AP31" s="11">
-        <v>243</v>
-      </c>
-      <c r="AQ31" s="11">
-        <v>39</v>
+        <v>302</v>
+      </c>
+      <c r="AQ31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR31" s="11" t="s">
         <v>58</v>
@@ -3936,7 +3936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4004,35 +4004,35 @@
       <c r="X32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z32" s="13" t="s">
-        <v>58</v>
+      <c r="Y32" s="13">
+        <v>136</v>
+      </c>
+      <c r="Z32" s="13">
+        <v>462</v>
       </c>
       <c r="AA32" s="13">
+        <v>539</v>
+      </c>
+      <c r="AB32" s="13">
+        <v>281</v>
+      </c>
+      <c r="AC32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="13">
         <v>136</v>
       </c>
-      <c r="AB32" s="13">
-        <v>462</v>
-      </c>
-      <c r="AC32" s="13">
-        <v>539</v>
-      </c>
-      <c r="AD32" s="13">
-        <v>281</v>
-      </c>
       <c r="AE32" s="13">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="AF32" s="13">
-        <v>136</v>
-      </c>
-      <c r="AG32" s="13">
-        <v>256</v>
-      </c>
-      <c r="AH32" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG32" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH32" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI32" s="13" t="s">
         <v>58</v>
@@ -4058,44 +4058,44 @@
       <c r="AP32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ32" s="13" t="s">
-        <v>58</v>
+      <c r="AQ32" s="13">
+        <v>417</v>
       </c>
       <c r="AR32" s="13">
-        <v>302</v>
+        <v>714</v>
       </c>
       <c r="AS32" s="13">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="AT32" s="13">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="AU32" s="13">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="AV32" s="13">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AW32" s="13">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AX32" s="13">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="AY32" s="13">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="AZ32" s="13">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BA32" s="13">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="BB32" s="13">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>72</v>
       </c>
@@ -4162,97 +4162,97 @@
         <v>0</v>
       </c>
       <c r="Y33" s="15">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="Z33" s="15">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="AA33" s="15">
+        <v>539</v>
+      </c>
+      <c r="AB33" s="15">
+        <v>281</v>
+      </c>
+      <c r="AC33" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="15">
         <v>136</v>
       </c>
-      <c r="AB33" s="15">
-        <v>462</v>
-      </c>
-      <c r="AC33" s="15">
-        <v>539</v>
-      </c>
-      <c r="AD33" s="15">
-        <v>281</v>
-      </c>
       <c r="AE33" s="15">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="AF33" s="15">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="15">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="AH33" s="15">
-        <v>0</v>
+        <v>219</v>
       </c>
       <c r="AI33" s="15">
-        <v>95</v>
+        <v>379</v>
       </c>
       <c r="AJ33" s="15">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AK33" s="15">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="15">
-        <v>224</v>
+        <v>37</v>
       </c>
       <c r="AM33" s="15">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AN33" s="15">
-        <v>37</v>
+        <v>243</v>
       </c>
       <c r="AO33" s="15">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="AP33" s="15">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="AQ33" s="15">
-        <v>39</v>
+        <v>417</v>
       </c>
       <c r="AR33" s="15">
-        <v>302</v>
+        <v>714</v>
       </c>
       <c r="AS33" s="15">
-        <v>417</v>
+        <v>349</v>
       </c>
       <c r="AT33" s="15">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="AU33" s="15">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="AV33" s="15">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AW33" s="15">
-        <v>197</v>
+        <v>38</v>
       </c>
       <c r="AX33" s="15">
-        <v>140</v>
+        <v>58</v>
       </c>
       <c r="AY33" s="15">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="AZ33" s="15">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="BA33" s="15">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="BB33" s="15">
-        <v>0</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>65</v>
       </c>
@@ -4309,7 +4309,7 @@
       <c r="BA34" s="17"/>
       <c r="BB34" s="17"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>66</v>
       </c>
@@ -4369,11 +4369,11 @@
       <c r="V35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>58</v>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>73</v>
       </c>
@@ -4523,7 +4523,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>59</v>
       </c>
@@ -4585,11 +4585,11 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
       </c>
       <c r="Y37" s="11">
         <v>0</v>
@@ -4615,11 +4615,11 @@
       <c r="AF37" s="11">
         <v>0</v>
       </c>
-      <c r="AG37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>0</v>
+      <c r="AG37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>58</v>
@@ -4682,7 +4682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>74</v>
       </c>
@@ -4742,11 +4742,11 @@
       <c r="V38" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="19" t="s">
-        <v>58</v>
+      <c r="W38" s="19">
+        <v>0</v>
+      </c>
+      <c r="X38" s="19">
+        <v>0</v>
       </c>
       <c r="Y38" s="19">
         <v>0</v>
@@ -4839,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
         <v>67</v>
       </c>
@@ -4900,103 +4900,103 @@
         <v>0</v>
       </c>
       <c r="W39" s="15">
-        <v>0</v>
+        <v>2157</v>
       </c>
       <c r="X39" s="15">
-        <v>0</v>
+        <v>1818</v>
       </c>
       <c r="Y39" s="15">
-        <v>2157</v>
+        <v>3754</v>
       </c>
       <c r="Z39" s="15">
-        <v>1818</v>
+        <v>2303</v>
       </c>
       <c r="AA39" s="15">
-        <v>3754</v>
+        <v>2026</v>
       </c>
       <c r="AB39" s="15">
-        <v>2303</v>
+        <v>2462</v>
       </c>
       <c r="AC39" s="15">
-        <v>2026</v>
+        <v>1768</v>
       </c>
       <c r="AD39" s="15">
-        <v>2462</v>
+        <v>1484</v>
       </c>
       <c r="AE39" s="15">
-        <v>1768</v>
+        <v>1916</v>
       </c>
       <c r="AF39" s="15">
-        <v>1484</v>
+        <v>2074</v>
       </c>
       <c r="AG39" s="15">
-        <v>1916</v>
+        <v>3055</v>
       </c>
       <c r="AH39" s="15">
-        <v>2074</v>
+        <v>2420</v>
       </c>
       <c r="AI39" s="15">
-        <v>3055</v>
+        <v>2662</v>
       </c>
       <c r="AJ39" s="15">
-        <v>2420</v>
+        <v>2913</v>
       </c>
       <c r="AK39" s="15">
-        <v>2662</v>
+        <v>2941</v>
       </c>
       <c r="AL39" s="15">
+        <v>2962</v>
+      </c>
+      <c r="AM39" s="15">
+        <v>2193</v>
+      </c>
+      <c r="AN39" s="15">
+        <v>3588</v>
+      </c>
+      <c r="AO39" s="15">
+        <v>2862</v>
+      </c>
+      <c r="AP39" s="15">
+        <v>2713</v>
+      </c>
+      <c r="AQ39" s="15">
+        <v>2457</v>
+      </c>
+      <c r="AR39" s="15">
+        <v>2669</v>
+      </c>
+      <c r="AS39" s="15">
         <v>2913</v>
       </c>
-      <c r="AM39" s="15">
-        <v>2941</v>
-      </c>
-      <c r="AN39" s="15">
-        <v>2962</v>
-      </c>
-      <c r="AO39" s="15">
-        <v>2193</v>
-      </c>
-      <c r="AP39" s="15">
-        <v>3588</v>
-      </c>
-      <c r="AQ39" s="15">
-        <v>2862</v>
-      </c>
-      <c r="AR39" s="15">
-        <v>2713</v>
-      </c>
-      <c r="AS39" s="15">
-        <v>2457</v>
-      </c>
       <c r="AT39" s="15">
-        <v>2669</v>
+        <v>2443</v>
       </c>
       <c r="AU39" s="15">
-        <v>2913</v>
+        <v>2428</v>
       </c>
       <c r="AV39" s="15">
-        <v>2443</v>
+        <v>2018</v>
       </c>
       <c r="AW39" s="15">
-        <v>2428</v>
+        <v>2112</v>
       </c>
       <c r="AX39" s="15">
-        <v>2018</v>
+        <v>2039</v>
       </c>
       <c r="AY39" s="15">
-        <v>2112</v>
+        <v>2579</v>
       </c>
       <c r="AZ39" s="15">
-        <v>2039</v>
+        <v>2899</v>
       </c>
       <c r="BA39" s="15">
-        <v>2579</v>
+        <v>1909</v>
       </c>
       <c r="BB39" s="15">
-        <v>2899</v>
+        <v>2066</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5051,7 +5051,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5106,7 +5106,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5161,7 +5161,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="7" t="s">
         <v>75</v>
       </c>
@@ -5318,7 +5318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -5373,7 +5373,7 @@
       <c r="BA44" s="1"/>
       <c r="BB44" s="1"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>76</v>
       </c>
@@ -5430,7 +5430,7 @@
       <c r="BA45" s="9"/>
       <c r="BB45" s="9"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>56</v>
       </c>
@@ -5519,11 +5519,11 @@
       <c r="AE46" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF46" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG46" s="11" t="s">
-        <v>58</v>
+      <c r="AF46" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="11">
+        <v>0</v>
       </c>
       <c r="AH46" s="11">
         <v>0</v>
@@ -5532,13 +5532,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="11">
-        <v>0</v>
+        <v>650545</v>
       </c>
       <c r="AK46" s="11">
         <v>0</v>
       </c>
       <c r="AL46" s="11">
-        <v>650545</v>
+        <v>0</v>
       </c>
       <c r="AM46" s="11">
         <v>0</v>
@@ -5546,11 +5546,11 @@
       <c r="AN46" s="11">
         <v>0</v>
       </c>
-      <c r="AO46" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="11">
-        <v>0</v>
+      <c r="AO46" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP46" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ46" s="11" t="s">
         <v>58</v>
@@ -5589,7 +5589,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>59</v>
       </c>
@@ -5651,104 +5651,104 @@
       <c r="V47" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="13" t="s">
-        <v>58</v>
+      <c r="W47" s="13">
+        <v>186426</v>
+      </c>
+      <c r="X47" s="13">
+        <v>190338</v>
       </c>
       <c r="Y47" s="13">
-        <v>186426</v>
+        <v>415508</v>
       </c>
       <c r="Z47" s="13">
-        <v>190338</v>
+        <v>231200</v>
       </c>
       <c r="AA47" s="13">
-        <v>415508</v>
+        <v>210085</v>
       </c>
       <c r="AB47" s="13">
-        <v>231200</v>
+        <v>359796</v>
       </c>
       <c r="AC47" s="13">
-        <v>210085</v>
+        <v>320594</v>
       </c>
       <c r="AD47" s="13">
-        <v>359796</v>
+        <v>246755</v>
       </c>
       <c r="AE47" s="13">
-        <v>320594</v>
+        <v>334788</v>
       </c>
       <c r="AF47" s="13">
-        <v>246755</v>
+        <v>463301</v>
       </c>
       <c r="AG47" s="13">
-        <v>334788</v>
+        <v>679057</v>
       </c>
       <c r="AH47" s="13">
-        <v>463301</v>
+        <v>501899</v>
       </c>
       <c r="AI47" s="13">
-        <v>679057</v>
+        <v>530788</v>
       </c>
       <c r="AJ47" s="13">
-        <v>501899</v>
+        <v>0</v>
       </c>
       <c r="AK47" s="13">
-        <v>530788</v>
+        <v>727509</v>
       </c>
       <c r="AL47" s="13">
-        <v>0</v>
+        <v>764159</v>
       </c>
       <c r="AM47" s="13">
-        <v>727509</v>
+        <v>576692</v>
       </c>
       <c r="AN47" s="13">
-        <v>764159</v>
+        <v>886465</v>
       </c>
       <c r="AO47" s="13">
-        <v>576692</v>
+        <v>750990</v>
       </c>
       <c r="AP47" s="13">
-        <v>886465</v>
+        <v>693560</v>
       </c>
       <c r="AQ47" s="13">
-        <v>750990</v>
+        <v>616750</v>
       </c>
       <c r="AR47" s="13">
-        <v>693560</v>
+        <v>718397</v>
       </c>
       <c r="AS47" s="13">
-        <v>616750</v>
+        <v>1046401</v>
       </c>
       <c r="AT47" s="13">
-        <v>718397</v>
+        <v>1047653</v>
       </c>
       <c r="AU47" s="13">
-        <v>1046401</v>
+        <v>967192</v>
       </c>
       <c r="AV47" s="13">
-        <v>1047653</v>
+        <v>819584</v>
       </c>
       <c r="AW47" s="13">
-        <v>967192</v>
+        <v>865056</v>
       </c>
       <c r="AX47" s="13">
-        <v>819584</v>
+        <v>731915</v>
       </c>
       <c r="AY47" s="13">
-        <v>865056</v>
+        <v>881779</v>
       </c>
       <c r="AZ47" s="13">
-        <v>731915</v>
+        <v>1024056</v>
       </c>
       <c r="BA47" s="13">
-        <v>881779</v>
+        <v>645351</v>
       </c>
       <c r="BB47" s="13">
-        <v>1023275</v>
+        <v>663984</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
         <v>70</v>
       </c>
@@ -5809,103 +5809,103 @@
         <v>0</v>
       </c>
       <c r="W48" s="15">
-        <v>0</v>
+        <v>186426</v>
       </c>
       <c r="X48" s="15">
-        <v>0</v>
+        <v>190338</v>
       </c>
       <c r="Y48" s="15">
-        <v>186426</v>
+        <v>415508</v>
       </c>
       <c r="Z48" s="15">
-        <v>190338</v>
+        <v>231200</v>
       </c>
       <c r="AA48" s="15">
-        <v>415508</v>
+        <v>210085</v>
       </c>
       <c r="AB48" s="15">
-        <v>231200</v>
+        <v>359796</v>
       </c>
       <c r="AC48" s="15">
-        <v>210085</v>
+        <v>320594</v>
       </c>
       <c r="AD48" s="15">
-        <v>359796</v>
+        <v>246755</v>
       </c>
       <c r="AE48" s="15">
-        <v>320594</v>
+        <v>334788</v>
       </c>
       <c r="AF48" s="15">
-        <v>246755</v>
+        <v>463301</v>
       </c>
       <c r="AG48" s="15">
-        <v>334788</v>
+        <v>679057</v>
       </c>
       <c r="AH48" s="15">
-        <v>463301</v>
+        <v>501899</v>
       </c>
       <c r="AI48" s="15">
-        <v>679057</v>
+        <v>530788</v>
       </c>
       <c r="AJ48" s="15">
-        <v>501899</v>
+        <v>650545</v>
       </c>
       <c r="AK48" s="15">
-        <v>530788</v>
+        <v>727509</v>
       </c>
       <c r="AL48" s="15">
-        <v>650545</v>
+        <v>764159</v>
       </c>
       <c r="AM48" s="15">
-        <v>727509</v>
+        <v>576692</v>
       </c>
       <c r="AN48" s="15">
-        <v>764159</v>
+        <v>886465</v>
       </c>
       <c r="AO48" s="15">
-        <v>576692</v>
+        <v>750990</v>
       </c>
       <c r="AP48" s="15">
-        <v>886465</v>
+        <v>693560</v>
       </c>
       <c r="AQ48" s="15">
-        <v>750990</v>
+        <v>616750</v>
       </c>
       <c r="AR48" s="15">
-        <v>693560</v>
+        <v>718397</v>
       </c>
       <c r="AS48" s="15">
-        <v>616750</v>
+        <v>1046401</v>
       </c>
       <c r="AT48" s="15">
-        <v>718397</v>
+        <v>1047653</v>
       </c>
       <c r="AU48" s="15">
-        <v>1046401</v>
+        <v>967192</v>
       </c>
       <c r="AV48" s="15">
-        <v>1047653</v>
+        <v>819584</v>
       </c>
       <c r="AW48" s="15">
-        <v>967192</v>
+        <v>865056</v>
       </c>
       <c r="AX48" s="15">
-        <v>819584</v>
+        <v>731915</v>
       </c>
       <c r="AY48" s="15">
-        <v>865056</v>
+        <v>881779</v>
       </c>
       <c r="AZ48" s="15">
-        <v>731915</v>
+        <v>1024056</v>
       </c>
       <c r="BA48" s="15">
-        <v>881779</v>
+        <v>645351</v>
       </c>
       <c r="BB48" s="15">
-        <v>1023275</v>
+        <v>663984</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>78</v>
       </c>
@@ -5962,7 +5962,7 @@
       <c r="BA49" s="9"/>
       <c r="BB49" s="9"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>63</v>
       </c>
@@ -6051,41 +6051,41 @@
       <c r="AE50" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF50" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG50" s="11" t="s">
-        <v>58</v>
+      <c r="AF50" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="11">
+        <v>24019</v>
       </c>
       <c r="AH50" s="11">
-        <v>0</v>
+        <v>53161</v>
       </c>
       <c r="AI50" s="11">
-        <v>24019</v>
+        <v>90948</v>
       </c>
       <c r="AJ50" s="11">
-        <v>53161</v>
+        <v>56770</v>
       </c>
       <c r="AK50" s="11">
-        <v>90948</v>
+        <v>0</v>
       </c>
       <c r="AL50" s="11">
-        <v>56770</v>
+        <v>9051</v>
       </c>
       <c r="AM50" s="11">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AN50" s="11">
-        <v>9051</v>
+        <v>54191</v>
       </c>
       <c r="AO50" s="11">
-        <v>4686</v>
+        <v>9127</v>
       </c>
       <c r="AP50" s="11">
-        <v>54191</v>
-      </c>
-      <c r="AQ50" s="11">
-        <v>9127</v>
+        <v>68293</v>
+      </c>
+      <c r="AQ50" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR50" s="11" t="s">
         <v>58</v>
@@ -6121,7 +6121,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>59</v>
       </c>
@@ -6189,32 +6189,32 @@
       <c r="X51" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z51" s="13" t="s">
-        <v>58</v>
+      <c r="Y51" s="13">
+        <v>13008</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>52835</v>
       </c>
       <c r="AA51" s="13">
-        <v>13008</v>
+        <v>71380</v>
       </c>
       <c r="AB51" s="13">
-        <v>52835</v>
+        <v>48128</v>
       </c>
       <c r="AC51" s="13">
-        <v>71380</v>
+        <v>0</v>
       </c>
       <c r="AD51" s="13">
-        <v>48128</v>
+        <v>24706</v>
       </c>
       <c r="AE51" s="13">
-        <v>0</v>
+        <v>56761</v>
       </c>
       <c r="AF51" s="13">
-        <v>24706</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="13">
-        <v>56761</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="13">
         <v>0</v>
@@ -6237,50 +6237,50 @@
       <c r="AN51" s="13">
         <v>0</v>
       </c>
-      <c r="AO51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ51" s="13" t="s">
-        <v>58</v>
+      <c r="AO51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP51" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ51" s="13">
+        <v>98168</v>
       </c>
       <c r="AR51" s="13">
-        <v>68293</v>
+        <v>212355</v>
       </c>
       <c r="AS51" s="13">
-        <v>98168</v>
+        <v>113493</v>
       </c>
       <c r="AT51" s="13">
-        <v>212355</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="13">
-        <v>113493</v>
+        <v>72093</v>
       </c>
       <c r="AV51" s="13">
-        <v>0</v>
+        <v>51244</v>
       </c>
       <c r="AW51" s="13">
-        <v>72093</v>
+        <v>11972</v>
       </c>
       <c r="AX51" s="13">
-        <v>51244</v>
+        <v>17738</v>
       </c>
       <c r="AY51" s="13">
-        <v>11972</v>
+        <v>20153</v>
       </c>
       <c r="AZ51" s="13">
-        <v>17738</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="13">
-        <v>20153</v>
+        <v>13482</v>
       </c>
       <c r="BB51" s="13">
-        <v>0</v>
+        <v>47146</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
         <v>72</v>
       </c>
@@ -6347,97 +6347,97 @@
         <v>0</v>
       </c>
       <c r="Y52" s="15">
-        <v>0</v>
+        <v>13008</v>
       </c>
       <c r="Z52" s="15">
-        <v>0</v>
+        <v>52835</v>
       </c>
       <c r="AA52" s="15">
-        <v>13008</v>
+        <v>71380</v>
       </c>
       <c r="AB52" s="15">
-        <v>52835</v>
+        <v>48128</v>
       </c>
       <c r="AC52" s="15">
-        <v>71380</v>
+        <v>0</v>
       </c>
       <c r="AD52" s="15">
-        <v>48128</v>
+        <v>24706</v>
       </c>
       <c r="AE52" s="15">
-        <v>0</v>
+        <v>56761</v>
       </c>
       <c r="AF52" s="15">
-        <v>24706</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="15">
-        <v>56761</v>
+        <v>24019</v>
       </c>
       <c r="AH52" s="15">
-        <v>0</v>
+        <v>53161</v>
       </c>
       <c r="AI52" s="15">
-        <v>24019</v>
+        <v>90948</v>
       </c>
       <c r="AJ52" s="15">
-        <v>53161</v>
+        <v>56770</v>
       </c>
       <c r="AK52" s="15">
-        <v>90948</v>
+        <v>0</v>
       </c>
       <c r="AL52" s="15">
-        <v>56770</v>
+        <v>9051</v>
       </c>
       <c r="AM52" s="15">
-        <v>0</v>
+        <v>4686</v>
       </c>
       <c r="AN52" s="15">
-        <v>9051</v>
+        <v>54191</v>
       </c>
       <c r="AO52" s="15">
-        <v>4686</v>
+        <v>9127</v>
       </c>
       <c r="AP52" s="15">
-        <v>54191</v>
+        <v>68293</v>
       </c>
       <c r="AQ52" s="15">
-        <v>9127</v>
+        <v>98168</v>
       </c>
       <c r="AR52" s="15">
-        <v>68293</v>
+        <v>212355</v>
       </c>
       <c r="AS52" s="15">
-        <v>98168</v>
+        <v>113493</v>
       </c>
       <c r="AT52" s="15">
-        <v>212355</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="15">
-        <v>113493</v>
+        <v>72093</v>
       </c>
       <c r="AV52" s="15">
-        <v>0</v>
+        <v>51244</v>
       </c>
       <c r="AW52" s="15">
-        <v>72093</v>
+        <v>11972</v>
       </c>
       <c r="AX52" s="15">
-        <v>51244</v>
+        <v>17738</v>
       </c>
       <c r="AY52" s="15">
-        <v>11972</v>
+        <v>20153</v>
       </c>
       <c r="AZ52" s="15">
-        <v>17738</v>
+        <v>0</v>
       </c>
       <c r="BA52" s="15">
-        <v>20153</v>
+        <v>13482</v>
       </c>
       <c r="BB52" s="15">
-        <v>0</v>
+        <v>47146</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="16" t="s">
         <v>79</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="BA53" s="17"/>
       <c r="BB53" s="17"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="14" t="s">
         <v>66</v>
       </c>
@@ -6556,11 +6556,11 @@
       <c r="V54" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="15" t="s">
-        <v>58</v>
+      <c r="W54" s="15">
+        <v>0</v>
+      </c>
+      <c r="X54" s="15">
+        <v>0</v>
       </c>
       <c r="Y54" s="15">
         <v>0</v>
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="8" t="s">
         <v>80</v>
       </c>
@@ -6710,7 +6710,7 @@
       <c r="BA55" s="9"/>
       <c r="BB55" s="9"/>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>59</v>
       </c>
@@ -6772,11 +6772,11 @@
       <c r="V56" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="11" t="s">
-        <v>58</v>
+      <c r="W56" s="11">
+        <v>0</v>
+      </c>
+      <c r="X56" s="11">
+        <v>0</v>
       </c>
       <c r="Y56" s="11">
         <v>0</v>
@@ -6826,11 +6826,11 @@
       <c r="AN56" s="11">
         <v>0</v>
       </c>
-      <c r="AO56" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP56" s="11">
-        <v>0</v>
+      <c r="AO56" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP56" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AQ56" s="11" t="s">
         <v>58</v>
@@ -6869,7 +6869,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>74</v>
       </c>
@@ -6931,11 +6931,11 @@
       <c r="V57" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="W57" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="X57" s="19" t="s">
-        <v>58</v>
+      <c r="W57" s="19">
+        <v>0</v>
+      </c>
+      <c r="X57" s="19">
+        <v>0</v>
       </c>
       <c r="Y57" s="19">
         <v>0</v>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>81</v>
       </c>
@@ -7085,7 +7085,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>82</v>
       </c>
@@ -7147,11 +7147,11 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>0</v>
+      </c>
+      <c r="X59" s="11">
+        <v>0</v>
       </c>
       <c r="Y59" s="11">
         <v>0</v>
@@ -7244,7 +7244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="18" t="s">
         <v>67</v>
       </c>
@@ -7305,103 +7305,103 @@
         <v>0</v>
       </c>
       <c r="W60" s="19">
-        <v>0</v>
+        <v>186426</v>
       </c>
       <c r="X60" s="19">
-        <v>0</v>
+        <v>190338</v>
       </c>
       <c r="Y60" s="19">
-        <v>186426</v>
+        <v>428516</v>
       </c>
       <c r="Z60" s="19">
-        <v>190338</v>
+        <v>284035</v>
       </c>
       <c r="AA60" s="19">
-        <v>428516</v>
+        <v>281465</v>
       </c>
       <c r="AB60" s="19">
-        <v>284035</v>
+        <v>407924</v>
       </c>
       <c r="AC60" s="19">
-        <v>281465</v>
+        <v>320594</v>
       </c>
       <c r="AD60" s="19">
-        <v>407924</v>
+        <v>271461</v>
       </c>
       <c r="AE60" s="19">
-        <v>320594</v>
+        <v>391549</v>
       </c>
       <c r="AF60" s="19">
-        <v>271461</v>
+        <v>463301</v>
       </c>
       <c r="AG60" s="19">
-        <v>391549</v>
+        <v>703076</v>
       </c>
       <c r="AH60" s="19">
-        <v>463301</v>
+        <v>555060</v>
       </c>
       <c r="AI60" s="19">
-        <v>703076</v>
+        <v>621736</v>
       </c>
       <c r="AJ60" s="19">
-        <v>555060</v>
+        <v>707315</v>
       </c>
       <c r="AK60" s="19">
-        <v>621736</v>
+        <v>727509</v>
       </c>
       <c r="AL60" s="19">
-        <v>707315</v>
+        <v>773210</v>
       </c>
       <c r="AM60" s="19">
-        <v>727509</v>
+        <v>581378</v>
       </c>
       <c r="AN60" s="19">
-        <v>773210</v>
+        <v>940656</v>
       </c>
       <c r="AO60" s="19">
-        <v>581378</v>
+        <v>760117</v>
       </c>
       <c r="AP60" s="19">
-        <v>940656</v>
+        <v>761853</v>
       </c>
       <c r="AQ60" s="19">
-        <v>760117</v>
+        <v>714918</v>
       </c>
       <c r="AR60" s="19">
-        <v>761853</v>
+        <v>930752</v>
       </c>
       <c r="AS60" s="19">
-        <v>714918</v>
+        <v>1159894</v>
       </c>
       <c r="AT60" s="19">
-        <v>930752</v>
+        <v>1047653</v>
       </c>
       <c r="AU60" s="19">
-        <v>1159894</v>
+        <v>1039285</v>
       </c>
       <c r="AV60" s="19">
-        <v>1047653</v>
+        <v>870828</v>
       </c>
       <c r="AW60" s="19">
-        <v>1039285</v>
+        <v>877028</v>
       </c>
       <c r="AX60" s="19">
-        <v>870828</v>
+        <v>749653</v>
       </c>
       <c r="AY60" s="19">
-        <v>877028</v>
+        <v>901932</v>
       </c>
       <c r="AZ60" s="19">
-        <v>749653</v>
+        <v>1024056</v>
       </c>
       <c r="BA60" s="19">
-        <v>901932</v>
+        <v>658833</v>
       </c>
       <c r="BB60" s="19">
-        <v>1023275</v>
+        <v>711130</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -7456,7 +7456,7 @@
       <c r="BA61" s="1"/>
       <c r="BB61" s="1"/>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7511,7 +7511,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7566,7 +7566,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B64" s="7" t="s">
         <v>83</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -7778,7 +7778,7 @@
       <c r="BA65" s="1"/>
       <c r="BB65" s="1"/>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="8" t="s">
         <v>84</v>
       </c>
@@ -7835,7 +7835,7 @@
       <c r="BA66" s="9"/>
       <c r="BB66" s="9"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
         <v>56</v>
       </c>
@@ -7936,14 +7936,14 @@
       <c r="AI67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ67" s="11" t="s">
-        <v>58</v>
+      <c r="AJ67" s="11">
+        <v>241928226</v>
       </c>
       <c r="AK67" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AL67" s="11">
-        <v>241928226</v>
+      <c r="AL67" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM67" s="11" t="s">
         <v>58</v>
@@ -7994,7 +7994,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>59</v>
       </c>
@@ -8056,104 +8056,104 @@
       <c r="V68" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W68" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X68" s="13" t="s">
-        <v>58</v>
+      <c r="W68" s="13">
+        <v>86428373</v>
+      </c>
+      <c r="X68" s="13">
+        <v>104696370</v>
       </c>
       <c r="Y68" s="13">
-        <v>86428373</v>
+        <v>114844666</v>
       </c>
       <c r="Z68" s="13">
-        <v>104696370</v>
+        <v>125583922</v>
       </c>
       <c r="AA68" s="13">
-        <v>114844666</v>
+        <v>141281103</v>
       </c>
       <c r="AB68" s="13">
-        <v>125583922</v>
+        <v>164968363</v>
       </c>
       <c r="AC68" s="13">
-        <v>141281103</v>
+        <v>181331448</v>
       </c>
       <c r="AD68" s="13">
-        <v>164968363</v>
+        <v>183052671</v>
       </c>
       <c r="AE68" s="13">
-        <v>181331448</v>
+        <v>201679518</v>
       </c>
       <c r="AF68" s="13">
-        <v>183052671</v>
+        <v>223385246</v>
       </c>
       <c r="AG68" s="13">
-        <v>201679518</v>
+        <v>229411149</v>
       </c>
       <c r="AH68" s="13">
-        <v>223385246</v>
+        <v>228032258</v>
       </c>
       <c r="AI68" s="13">
-        <v>229411149</v>
-      </c>
-      <c r="AJ68" s="13">
-        <v>228032258</v>
+        <v>232495839</v>
+      </c>
+      <c r="AJ68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK68" s="13">
-        <v>232495839</v>
-      </c>
-      <c r="AL68" s="13" t="s">
-        <v>58</v>
+        <v>247367902</v>
+      </c>
+      <c r="AL68" s="13">
+        <v>261250940</v>
       </c>
       <c r="AM68" s="13">
-        <v>247367902</v>
+        <v>265267709</v>
       </c>
       <c r="AN68" s="13">
-        <v>261250940</v>
+        <v>265011958</v>
       </c>
       <c r="AO68" s="13">
-        <v>265267709</v>
+        <v>266025505</v>
       </c>
       <c r="AP68" s="13">
-        <v>265011958</v>
+        <v>287664869</v>
       </c>
       <c r="AQ68" s="13">
-        <v>266025505</v>
+        <v>302328431</v>
       </c>
       <c r="AR68" s="13">
-        <v>287664869</v>
+        <v>367466496</v>
       </c>
       <c r="AS68" s="13">
-        <v>302328431</v>
+        <v>408112715</v>
       </c>
       <c r="AT68" s="13">
-        <v>367466496</v>
+        <v>428838723</v>
       </c>
       <c r="AU68" s="13">
-        <v>408112715</v>
+        <v>433523980</v>
       </c>
       <c r="AV68" s="13">
-        <v>428838723</v>
+        <v>436413206</v>
       </c>
       <c r="AW68" s="13">
-        <v>433523980</v>
+        <v>417095468</v>
       </c>
       <c r="AX68" s="13">
-        <v>436413206</v>
+        <v>369467441</v>
       </c>
       <c r="AY68" s="13">
-        <v>417095468</v>
+        <v>351306375</v>
       </c>
       <c r="AZ68" s="13">
-        <v>369467441</v>
+        <v>353244567</v>
       </c>
       <c r="BA68" s="13">
-        <v>351306375</v>
+        <v>345847267</v>
       </c>
       <c r="BB68" s="13">
-        <v>352975164</v>
+        <v>344568760</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
         <v>87</v>
       </c>
@@ -8210,7 +8210,7 @@
       <c r="BA69" s="9"/>
       <c r="BB69" s="9"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>63</v>
       </c>
@@ -8302,38 +8302,38 @@
       <c r="AF70" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AG70" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH70" s="11" t="s">
-        <v>58</v>
+      <c r="AG70" s="11">
+        <v>252831579</v>
+      </c>
+      <c r="AH70" s="11">
+        <v>242744292</v>
       </c>
       <c r="AI70" s="11">
-        <v>252831579</v>
+        <v>239968338</v>
       </c>
       <c r="AJ70" s="11">
-        <v>242744292</v>
-      </c>
-      <c r="AK70" s="11">
-        <v>239968338</v>
+        <v>253437500</v>
+      </c>
+      <c r="AK70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL70" s="11">
-        <v>253437500</v>
-      </c>
-      <c r="AM70" s="11" t="s">
-        <v>58</v>
+        <v>244621622</v>
+      </c>
+      <c r="AM70" s="11">
+        <v>246631579</v>
       </c>
       <c r="AN70" s="11">
-        <v>244621622</v>
+        <v>223008230</v>
       </c>
       <c r="AO70" s="11">
-        <v>246631579</v>
+        <v>234025641</v>
       </c>
       <c r="AP70" s="11">
-        <v>223008230</v>
-      </c>
-      <c r="AQ70" s="11">
-        <v>234025641</v>
+        <v>226135762</v>
+      </c>
+      <c r="AQ70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AR70" s="11" t="s">
         <v>58</v>
@@ -8369,7 +8369,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>59</v>
       </c>
@@ -8437,33 +8437,33 @@
       <c r="X71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z71" s="13" t="s">
-        <v>58</v>
+      <c r="Y71" s="13">
+        <v>95647059</v>
+      </c>
+      <c r="Z71" s="13">
+        <v>114361472</v>
       </c>
       <c r="AA71" s="13">
-        <v>95647059</v>
+        <v>132430427</v>
       </c>
       <c r="AB71" s="13">
-        <v>114361472</v>
-      </c>
-      <c r="AC71" s="13">
-        <v>132430427</v>
+        <v>171274021</v>
+      </c>
+      <c r="AC71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD71" s="13">
-        <v>171274021</v>
-      </c>
-      <c r="AE71" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF71" s="13">
         <v>181661765</v>
       </c>
-      <c r="AG71" s="13">
+      <c r="AE71" s="13">
         <v>221722656</v>
       </c>
+      <c r="AF71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG71" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AH71" s="13" t="s">
         <v>58</v>
       </c>
@@ -8491,41 +8491,41 @@
       <c r="AP71" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ71" s="13" t="s">
-        <v>58</v>
+      <c r="AQ71" s="13">
+        <v>235414868</v>
       </c>
       <c r="AR71" s="13">
-        <v>226135762</v>
+        <v>297415966</v>
       </c>
       <c r="AS71" s="13">
-        <v>235414868</v>
-      </c>
-      <c r="AT71" s="13">
-        <v>297415966</v>
+        <v>325194842</v>
+      </c>
+      <c r="AT71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU71" s="13">
-        <v>325194842</v>
-      </c>
-      <c r="AV71" s="13" t="s">
-        <v>58</v>
+        <v>365954315</v>
+      </c>
+      <c r="AV71" s="13">
+        <v>366028571</v>
       </c>
       <c r="AW71" s="13">
-        <v>365954315</v>
+        <v>315052632</v>
       </c>
       <c r="AX71" s="13">
-        <v>366028571</v>
+        <v>305827586</v>
       </c>
       <c r="AY71" s="13">
-        <v>315052632</v>
-      </c>
-      <c r="AZ71" s="13">
-        <v>305827586</v>
+        <v>292072464</v>
+      </c>
+      <c r="AZ71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BA71" s="13">
-        <v>292072464</v>
-      </c>
-      <c r="BB71" s="13" t="s">
-        <v>58</v>
+        <v>313534884</v>
+      </c>
+      <c r="BB71" s="13">
+        <v>339179856</v>
       </c>
     </row>
   </sheetData>
